--- a/doc/Scrum/Retrospective/Retrospective of Week 6.xlsx
+++ b/doc/Scrum/Retrospective/Retrospective of Week 6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\template\doc\Scrum\Retrospective\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DE6836-5FAB-4DC8-BBE8-E40940929D46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6079D1C5-7CC9-474D-A034-E440A5A64F20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{F6616064-0FAD-42E6-A83D-2D1779CBAA3D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6616064-0FAD-42E6-A83D-2D1779CBAA3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>User Story</t>
   </si>
@@ -176,6 +176,33 @@
   <si>
     <t>We are trying to finish the app for next week.</t>
   </si>
+  <si>
+    <t>Adjustements from last week</t>
+  </si>
+  <si>
+    <t>Only  use the new server version and delete the old one.</t>
+  </si>
+  <si>
+    <t>Migrating from postgres to MySQL</t>
+  </si>
+  <si>
+    <t>Add more tasks to the scrumboard and clean it up.</t>
+  </si>
+  <si>
+    <t>old adjustments:</t>
+  </si>
+  <si>
+    <t>what we did with the adjustments:</t>
+  </si>
+  <si>
+    <t>Everyone now uses the new version of the server</t>
+  </si>
+  <si>
+    <t>We now use MySQL and gave up on postgres</t>
+  </si>
+  <si>
+    <t>The scrumboard now actually shows what we are doing</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -317,11 +344,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -674,12 +745,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A4B7D9-CEDD-41AB-BA13-010C33BDBF14}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="A26:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
     <col min="3" max="7" width="19.44140625" customWidth="1"/>
     <col min="8" max="8" width="29.109375" customWidth="1"/>
@@ -1523,15 +1595,17 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
+    <row r="26" spans="1:26" ht="45.6">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -1551,11 +1625,19 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
+    <row r="27" spans="1:26" ht="39.6">
+      <c r="A27" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1579,11 +1661,19 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
+    <row r="28" spans="1:26" ht="39.6">
+      <c r="A28" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -28516,31 +28606,57 @@
       <c r="Z989" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G27:G989">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G27:G989">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G27:G989">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G27:G989">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G27:G989">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Scrum/Retrospective/Retrospective of Week 6.xlsx
+++ b/doc/Scrum/Retrospective/Retrospective of Week 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\template\doc\Scrum\Retrospective\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6079D1C5-7CC9-474D-A034-E440A5A64F20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD4CE76-44D9-469E-B85D-99EEEFFA4F1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6616064-0FAD-42E6-A83D-2D1779CBAA3D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>User Story</t>
   </si>
@@ -166,15 +166,6 @@
   </si>
   <si>
     <t>We fixed it during the meeting</t>
-  </si>
-  <si>
-    <t>Making sure everyone can run the application now</t>
-  </si>
-  <si>
-    <t>Clean up repository</t>
-  </si>
-  <si>
-    <t>We are trying to finish the app for next week.</t>
   </si>
   <si>
     <t>Adjustements from last week</t>
@@ -746,7 +737,7 @@
   <dimension ref="A1:Z989"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H28" sqref="A26:H28"/>
+      <selection activeCell="B23" sqref="B23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -1505,17 +1496,8 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" ht="26.4">
+    <row r="23" spans="1:26">
       <c r="A23" s="4"/>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1598,7 +1580,7 @@
     <row r="26" spans="1:26" ht="45.6">
       <c r="A26" s="16"/>
       <c r="B26" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
@@ -1627,16 +1609,16 @@
     </row>
     <row r="27" spans="1:26" ht="39.6">
       <c r="A27" s="24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
@@ -1663,16 +1645,16 @@
     </row>
     <row r="28" spans="1:26" ht="39.6">
       <c r="A28" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="3"/>
